--- a/N63_theo dõi tuần.xlsx
+++ b/N63_theo dõi tuần.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NhoiBK\Desktop\thực tập\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\TTCNPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A94E86-859B-4E8E-BBD1-0EC892854BF1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A1592086-D3ED-446E-862D-5BD3EBA4A044}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="59">
   <si>
     <t>Họ và tên</t>
   </si>
@@ -200,12 +199,21 @@
   </si>
   <si>
     <t>thiết kế mục giỏ hàng, thực hiện trang chủ</t>
+  </si>
+  <si>
+    <t>code và thiết kế giao diện đặt vé xe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Lê Thanh Điệp </t>
+  </si>
+  <si>
+    <t>Bổ Sung lại bảng dữ liệu và code hiển thị chi tiết của vé , nghiên cứu đặt chổ ba loại xe (16 chổ , 52 chổ ngồi ghế và xe giường nằm)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -950,23 +958,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C7B52CB-373B-4661-B3D9-81887F9DA7C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.88671875" customWidth="1"/>
-    <col min="4" max="4" width="28.21875" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="49.44140625" customWidth="1"/>
-    <col min="7" max="7" width="12.21875" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="49.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -989,7 +997,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1009,7 +1017,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1029,7 +1037,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1049,7 +1057,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1069,7 +1077,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1091,11 +1099,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D6" r:id="rId1" xr:uid="{14236A11-15EF-4E35-8CB7-C6B2F3FEA481}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{0A5291E5-13EF-44FA-8941-AD4C91988A51}"/>
-    <hyperlink ref="D3" r:id="rId3" xr:uid="{FB600635-5922-472A-9F68-FCCA8E2B2D38}"/>
-    <hyperlink ref="D2" r:id="rId4" xr:uid="{E9772CCF-52DC-4A1B-9002-0C569D0E6A76}"/>
-    <hyperlink ref="D5" r:id="rId5" xr:uid="{C71CB95C-C6FD-4D47-B429-C5F3E1EA0D5E}"/>
+    <hyperlink ref="D6" r:id="rId1"/>
+    <hyperlink ref="D4" r:id="rId2"/>
+    <hyperlink ref="D3" r:id="rId3"/>
+    <hyperlink ref="D2" r:id="rId4"/>
+    <hyperlink ref="D5" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
@@ -1103,36 +1111,47 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC694DE8-FEDD-4ACF-B675-0A18EBD6CBDA}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65D14A58-B2F4-4820-8480-B9813F389314}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.88671875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="35.77734375" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="6"/>
+    <col min="1" max="2" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.85546875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="35.7109375" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>42</v>
       </c>
@@ -1153,7 +1172,7 @@
       </c>
       <c r="G1" s="13"/>
     </row>
-    <row r="2" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28">
         <v>43549</v>
       </c>
@@ -1174,7 +1193,7 @@
       </c>
       <c r="G2" s="14"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="29"/>
       <c r="B3" s="35"/>
       <c r="C3" s="4" t="s">
@@ -1191,7 +1210,7 @@
       </c>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="29"/>
       <c r="B4" s="35"/>
       <c r="C4" s="4" t="s">
@@ -1208,7 +1227,7 @@
       </c>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="29"/>
       <c r="B5" s="35"/>
       <c r="C5" s="4" t="s">
@@ -1225,7 +1244,7 @@
       </c>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" s="12" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30"/>
       <c r="B6" s="36"/>
       <c r="C6" s="11" t="s">
@@ -1242,7 +1261,7 @@
       </c>
       <c r="G6" s="16"/>
     </row>
-    <row r="7" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="28">
         <v>43556</v>
       </c>
@@ -1263,7 +1282,7 @@
       </c>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="29"/>
       <c r="B8" s="32"/>
       <c r="C8" s="4" t="s">
@@ -1280,7 +1299,7 @@
       </c>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="29"/>
       <c r="B9" s="32"/>
       <c r="C9" s="4" t="s">
@@ -1297,7 +1316,7 @@
       </c>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="29"/>
       <c r="B10" s="32"/>
       <c r="C10" s="4" t="s">
@@ -1314,7 +1333,7 @@
       </c>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:7" s="12" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="30"/>
       <c r="B11" s="33"/>
       <c r="C11" s="11" t="s">
@@ -1331,7 +1350,7 @@
       </c>
       <c r="G11" s="16"/>
     </row>
-    <row r="12" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="28">
         <v>43563</v>
       </c>
@@ -1344,11 +1363,13 @@
       <c r="D12" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="9"/>
+      <c r="E12" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="F12" s="20"/>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="29"/>
       <c r="B13" s="32"/>
       <c r="C13" s="4" t="s">
@@ -1361,7 +1382,7 @@
       <c r="F13" s="21"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="29"/>
       <c r="B14" s="32"/>
       <c r="C14" s="4" t="s">
@@ -1374,7 +1395,7 @@
       <c r="F14" s="21"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="29"/>
       <c r="B15" s="32"/>
       <c r="C15" s="4" t="s">
@@ -1387,7 +1408,7 @@
       <c r="F15" s="21"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:7" s="12" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="30"/>
       <c r="B16" s="33"/>
       <c r="C16" s="11" t="s">
@@ -1400,7 +1421,7 @@
       <c r="F16" s="22"/>
       <c r="G16" s="16"/>
     </row>
-    <row r="17" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
         <v>43570</v>
       </c>
@@ -1410,31 +1431,31 @@
       <c r="F17" s="24"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="29"/>
       <c r="B18" s="32"/>
       <c r="F18" s="23"/>
       <c r="G18" s="15"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="29"/>
       <c r="B19" s="32"/>
       <c r="F19" s="23"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="29"/>
       <c r="B20" s="32"/>
       <c r="F20" s="23"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" s="12" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="30"/>
       <c r="B21" s="33"/>
       <c r="F21" s="25"/>
       <c r="G21" s="16"/>
     </row>
-    <row r="22" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="28">
         <v>43577</v>
       </c>
@@ -1444,31 +1465,31 @@
       <c r="F22" s="24"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="29"/>
       <c r="B23" s="32"/>
       <c r="F23" s="23"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="29"/>
       <c r="B24" s="32"/>
       <c r="F24" s="23"/>
       <c r="G24" s="15"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="29"/>
       <c r="B25" s="32"/>
       <c r="F25" s="23"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="1:7" s="12" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="30"/>
       <c r="B26" s="33"/>
       <c r="F26" s="25"/>
       <c r="G26" s="16"/>
     </row>
-    <row r="27" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="28">
         <v>43584</v>
       </c>
@@ -1478,31 +1499,31 @@
       <c r="F27" s="24"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="29"/>
       <c r="B28" s="32"/>
       <c r="F28" s="23"/>
       <c r="G28" s="15"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="29"/>
       <c r="B29" s="32"/>
       <c r="F29" s="23"/>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="29"/>
       <c r="B30" s="32"/>
       <c r="F30" s="23"/>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="1:7" s="12" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="30"/>
       <c r="B31" s="33"/>
       <c r="F31" s="25"/>
       <c r="G31" s="16"/>
     </row>
-    <row r="32" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="A2:A6"/>

--- a/N63_theo dõi tuần.xlsx
+++ b/N63_theo dõi tuần.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\TTCNPM\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="60">
   <si>
     <t>Họ và tên</t>
   </si>
@@ -208,6 +203,9 @@
   </si>
   <si>
     <t>Bổ Sung lại bảng dữ liệu và code hiển thị chi tiết của vé , nghiên cứu đặt chổ ba loại xe (16 chổ , 52 chổ ngồi ghế và xe giường nằm)</t>
+  </si>
+  <si>
+    <t>aaaa</t>
   </si>
 </sst>
 </file>
@@ -626,6 +624,15 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -633,15 +640,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -705,7 +703,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -757,7 +755,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -951,7 +949,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -965,16 +963,16 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="49.42578125" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.81640625" customWidth="1"/>
+    <col min="4" max="4" width="28.26953125" customWidth="1"/>
+    <col min="5" max="5" width="14.26953125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="49.453125" customWidth="1"/>
+    <col min="7" max="7" width="12.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -997,7 +995,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1017,7 +1015,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1037,7 +1035,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1057,7 +1055,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1077,7 +1075,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1112,20 +1110,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>57</v>
       </c>
       <c r="D1" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1141,17 +1144,17 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.85546875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="35.7109375" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="6"/>
+    <col min="1" max="2" width="11.7265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.81640625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="35.7265625" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="8.81640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="17" t="s">
         <v>42</v>
       </c>
@@ -1172,11 +1175,11 @@
       </c>
       <c r="G1" s="13"/>
     </row>
-    <row r="2" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28">
         <v>43549</v>
       </c>
-      <c r="B2" s="34">
+      <c r="B2" s="31">
         <v>43555</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -1193,9 +1196,9 @@
       </c>
       <c r="G2" s="14"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="29"/>
-      <c r="B3" s="35"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="4" t="s">
         <v>35</v>
       </c>
@@ -1210,9 +1213,9 @@
       </c>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="29"/>
-      <c r="B4" s="35"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="4" t="s">
         <v>30</v>
       </c>
@@ -1227,9 +1230,9 @@
       </c>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="29"/>
-      <c r="B5" s="35"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="4" t="s">
         <v>31</v>
       </c>
@@ -1244,9 +1247,9 @@
       </c>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="12" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="30"/>
-      <c r="B6" s="36"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="11" t="s">
         <v>36</v>
       </c>
@@ -1261,11 +1264,11 @@
       </c>
       <c r="G6" s="16"/>
     </row>
-    <row r="7" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="28">
         <v>43556</v>
       </c>
-      <c r="B7" s="31">
+      <c r="B7" s="34">
         <v>43562</v>
       </c>
       <c r="C7" s="9" t="s">
@@ -1282,9 +1285,9 @@
       </c>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="29"/>
-      <c r="B8" s="32"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="4" t="s">
         <v>50</v>
       </c>
@@ -1299,9 +1302,9 @@
       </c>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="29"/>
-      <c r="B9" s="32"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1316,9 +1319,9 @@
       </c>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="29"/>
-      <c r="B10" s="32"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="4" t="s">
         <v>52</v>
       </c>
@@ -1333,9 +1336,9 @@
       </c>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:7" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="12" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="30"/>
-      <c r="B11" s="33"/>
+      <c r="B11" s="36"/>
       <c r="C11" s="11" t="s">
         <v>53</v>
       </c>
@@ -1350,11 +1353,11 @@
       </c>
       <c r="G11" s="16"/>
     </row>
-    <row r="12" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="28">
         <v>43563</v>
       </c>
-      <c r="B12" s="31">
+      <c r="B12" s="34">
         <v>43569</v>
       </c>
       <c r="C12" s="9" t="s">
@@ -1369,9 +1372,9 @@
       <c r="F12" s="20"/>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="29"/>
-      <c r="B13" s="32"/>
+      <c r="B13" s="35"/>
       <c r="C13" s="4" t="s">
         <v>50</v>
       </c>
@@ -1382,9 +1385,9 @@
       <c r="F13" s="21"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="29"/>
-      <c r="B14" s="32"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="4" t="s">
         <v>51</v>
       </c>
@@ -1395,9 +1398,9 @@
       <c r="F14" s="21"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="29"/>
-      <c r="B15" s="32"/>
+      <c r="B15" s="35"/>
       <c r="C15" s="4" t="s">
         <v>55</v>
       </c>
@@ -1408,9 +1411,9 @@
       <c r="F15" s="21"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:7" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="12" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="30"/>
-      <c r="B16" s="33"/>
+      <c r="B16" s="36"/>
       <c r="C16" s="11" t="s">
         <v>53</v>
       </c>
@@ -1421,123 +1424,123 @@
       <c r="F16" s="22"/>
       <c r="G16" s="16"/>
     </row>
-    <row r="17" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="28">
         <v>43570</v>
       </c>
-      <c r="B17" s="31">
+      <c r="B17" s="34">
         <v>43576</v>
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="29"/>
-      <c r="B18" s="32"/>
+      <c r="B18" s="35"/>
       <c r="F18" s="23"/>
       <c r="G18" s="15"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="29"/>
-      <c r="B19" s="32"/>
+      <c r="B19" s="35"/>
       <c r="F19" s="23"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="29"/>
-      <c r="B20" s="32"/>
+      <c r="B20" s="35"/>
       <c r="F20" s="23"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" s="12" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="30"/>
-      <c r="B21" s="33"/>
+      <c r="B21" s="36"/>
       <c r="F21" s="25"/>
       <c r="G21" s="16"/>
     </row>
-    <row r="22" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="28">
         <v>43577</v>
       </c>
-      <c r="B22" s="31">
+      <c r="B22" s="34">
         <v>43583</v>
       </c>
       <c r="F22" s="24"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="29"/>
-      <c r="B23" s="32"/>
+      <c r="B23" s="35"/>
       <c r="F23" s="23"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="29"/>
-      <c r="B24" s="32"/>
+      <c r="B24" s="35"/>
       <c r="F24" s="23"/>
       <c r="G24" s="15"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="29"/>
-      <c r="B25" s="32"/>
+      <c r="B25" s="35"/>
       <c r="F25" s="23"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="1:7" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" s="12" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="30"/>
-      <c r="B26" s="33"/>
+      <c r="B26" s="36"/>
       <c r="F26" s="25"/>
       <c r="G26" s="16"/>
     </row>
-    <row r="27" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="28">
         <v>43584</v>
       </c>
-      <c r="B27" s="31">
+      <c r="B27" s="34">
         <v>43590</v>
       </c>
       <c r="F27" s="24"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="29"/>
-      <c r="B28" s="32"/>
+      <c r="B28" s="35"/>
       <c r="F28" s="23"/>
       <c r="G28" s="15"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="29"/>
-      <c r="B29" s="32"/>
+      <c r="B29" s="35"/>
       <c r="F29" s="23"/>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="29"/>
-      <c r="B30" s="32"/>
+      <c r="B30" s="35"/>
       <c r="F30" s="23"/>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="1:7" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" s="12" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="30"/>
-      <c r="B31" s="33"/>
+      <c r="B31" s="36"/>
       <c r="F31" s="25"/>
       <c r="G31" s="16"/>
     </row>
-    <row r="32" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="B27:B31"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="B7:B11"/>
     <mergeCell ref="A12:A16"/>
     <mergeCell ref="B12:B16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="B27:B31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/N63_theo dõi tuần.xlsx
+++ b/N63_theo dõi tuần.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="67">
   <si>
     <t>Họ và tên</t>
   </si>
@@ -199,13 +199,34 @@
     <t>code và thiết kế giao diện đặt vé xe</t>
   </si>
   <si>
-    <t xml:space="preserve">Nguyễn Lê Thanh Điệp </t>
-  </si>
-  <si>
     <t>Bổ Sung lại bảng dữ liệu và code hiển thị chi tiết của vé , nghiên cứu đặt chổ ba loại xe (16 chổ , 52 chổ ngồi ghế và xe giường nằm)</t>
   </si>
   <si>
-    <t>aaaa</t>
+    <t xml:space="preserve">Ngày </t>
+  </si>
+  <si>
+    <t>Tên</t>
+  </si>
+  <si>
+    <t>Công Việc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13/04/2019 </t>
+  </si>
+  <si>
+    <t>Đàm Ngọc Hương</t>
+  </si>
+  <si>
+    <t>Tạo database và code phần Vé Giải Trí</t>
+  </si>
+  <si>
+    <t>20/042019</t>
+  </si>
+  <si>
+    <t>tạo database phần vé giải trí và code</t>
+  </si>
+  <si>
+    <t>tiếp tục bổ sung database và coding</t>
   </si>
 </sst>
 </file>
@@ -538,7 +559,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -624,6 +645,15 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -633,14 +663,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -949,7 +973,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1110,25 +1134,60 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" customWidth="1"/>
+    <col min="3" max="3" width="108.81640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>57</v>
       </c>
-      <c r="D1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>59</v>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1141,7 +1200,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1179,7 +1238,7 @@
       <c r="A2" s="28">
         <v>43549</v>
       </c>
-      <c r="B2" s="31">
+      <c r="B2" s="34">
         <v>43555</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -1198,7 +1257,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="29"/>
-      <c r="B3" s="32"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="4" t="s">
         <v>35</v>
       </c>
@@ -1215,7 +1274,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="29"/>
-      <c r="B4" s="32"/>
+      <c r="B4" s="35"/>
       <c r="C4" s="4" t="s">
         <v>30</v>
       </c>
@@ -1232,7 +1291,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="29"/>
-      <c r="B5" s="32"/>
+      <c r="B5" s="35"/>
       <c r="C5" s="4" t="s">
         <v>31</v>
       </c>
@@ -1249,7 +1308,7 @@
     </row>
     <row r="6" spans="1:7" s="12" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="30"/>
-      <c r="B6" s="33"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="11" t="s">
         <v>36</v>
       </c>
@@ -1268,7 +1327,7 @@
       <c r="A7" s="28">
         <v>43556</v>
       </c>
-      <c r="B7" s="34">
+      <c r="B7" s="31">
         <v>43562</v>
       </c>
       <c r="C7" s="9" t="s">
@@ -1287,7 +1346,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="29"/>
-      <c r="B8" s="35"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="4" t="s">
         <v>50</v>
       </c>
@@ -1304,7 +1363,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="29"/>
-      <c r="B9" s="35"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1321,7 +1380,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="29"/>
-      <c r="B10" s="35"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="4" t="s">
         <v>52</v>
       </c>
@@ -1338,7 +1397,7 @@
     </row>
     <row r="11" spans="1:7" s="12" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="30"/>
-      <c r="B11" s="36"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="11" t="s">
         <v>53</v>
       </c>
@@ -1357,7 +1416,7 @@
       <c r="A12" s="28">
         <v>43563</v>
       </c>
-      <c r="B12" s="34">
+      <c r="B12" s="31">
         <v>43569</v>
       </c>
       <c r="C12" s="9" t="s">
@@ -1374,20 +1433,22 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="29"/>
-      <c r="B13" s="35"/>
+      <c r="B13" s="32"/>
       <c r="C13" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="F13" s="21"/>
       <c r="G13" s="15"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="29"/>
-      <c r="B14" s="35"/>
+      <c r="B14" s="32"/>
       <c r="C14" s="4" t="s">
         <v>51</v>
       </c>
@@ -1400,7 +1461,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="29"/>
-      <c r="B15" s="35"/>
+      <c r="B15" s="32"/>
       <c r="C15" s="4" t="s">
         <v>55</v>
       </c>
@@ -1413,7 +1474,7 @@
     </row>
     <row r="16" spans="1:7" s="12" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="30"/>
-      <c r="B16" s="36"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="11" t="s">
         <v>53</v>
       </c>
@@ -1428,7 +1489,7 @@
       <c r="A17" s="28">
         <v>43570</v>
       </c>
-      <c r="B17" s="34">
+      <c r="B17" s="31">
         <v>43576</v>
       </c>
       <c r="F17" s="24"/>
@@ -1436,25 +1497,25 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="29"/>
-      <c r="B18" s="35"/>
+      <c r="B18" s="32"/>
       <c r="F18" s="23"/>
       <c r="G18" s="15"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="29"/>
-      <c r="B19" s="35"/>
+      <c r="B19" s="32"/>
       <c r="F19" s="23"/>
       <c r="G19" s="15"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="29"/>
-      <c r="B20" s="35"/>
+      <c r="B20" s="32"/>
       <c r="F20" s="23"/>
       <c r="G20" s="15"/>
     </row>
     <row r="21" spans="1:7" s="12" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="30"/>
-      <c r="B21" s="36"/>
+      <c r="B21" s="33"/>
       <c r="F21" s="25"/>
       <c r="G21" s="16"/>
     </row>
@@ -1462,7 +1523,7 @@
       <c r="A22" s="28">
         <v>43577</v>
       </c>
-      <c r="B22" s="34">
+      <c r="B22" s="31">
         <v>43583</v>
       </c>
       <c r="F22" s="24"/>
@@ -1470,25 +1531,25 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="29"/>
-      <c r="B23" s="35"/>
+      <c r="B23" s="32"/>
       <c r="F23" s="23"/>
       <c r="G23" s="15"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="29"/>
-      <c r="B24" s="35"/>
+      <c r="B24" s="32"/>
       <c r="F24" s="23"/>
       <c r="G24" s="15"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="29"/>
-      <c r="B25" s="35"/>
+      <c r="B25" s="32"/>
       <c r="F25" s="23"/>
       <c r="G25" s="15"/>
     </row>
     <row r="26" spans="1:7" s="12" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="30"/>
-      <c r="B26" s="36"/>
+      <c r="B26" s="33"/>
       <c r="F26" s="25"/>
       <c r="G26" s="16"/>
     </row>
@@ -1496,7 +1557,7 @@
       <c r="A27" s="28">
         <v>43584</v>
       </c>
-      <c r="B27" s="34">
+      <c r="B27" s="31">
         <v>43590</v>
       </c>
       <c r="F27" s="24"/>
@@ -1504,43 +1565,43 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="29"/>
-      <c r="B28" s="35"/>
+      <c r="B28" s="32"/>
       <c r="F28" s="23"/>
       <c r="G28" s="15"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="29"/>
-      <c r="B29" s="35"/>
+      <c r="B29" s="32"/>
       <c r="F29" s="23"/>
       <c r="G29" s="15"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="29"/>
-      <c r="B30" s="35"/>
+      <c r="B30" s="32"/>
       <c r="F30" s="23"/>
       <c r="G30" s="15"/>
     </row>
     <row r="31" spans="1:7" s="12" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="30"/>
-      <c r="B31" s="36"/>
+      <c r="B31" s="33"/>
       <c r="F31" s="25"/>
       <c r="G31" s="16"/>
     </row>
     <row r="32" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="B12:B16"/>
     <mergeCell ref="A17:A21"/>
     <mergeCell ref="A22:A26"/>
     <mergeCell ref="A27:A31"/>
     <mergeCell ref="B17:B21"/>
     <mergeCell ref="B22:B26"/>
     <mergeCell ref="B27:B31"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="B12:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/N63_theo dõi tuần.xlsx
+++ b/N63_theo dõi tuần.xlsx
@@ -1,32 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
+    <sheet name="TestCase" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="98">
   <si>
     <t>Họ và tên</t>
   </si>
@@ -227,13 +218,106 @@
   </si>
   <si>
     <t>tiếp tục bổ sung database và coding</t>
+  </si>
+  <si>
+    <t>Nhóm 63</t>
+  </si>
+  <si>
+    <t>https://github.com/huong12345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tên Test Case </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Các bước thực hiện </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kết quả mong đợi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kết quả thực tế </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghi chú </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Góp ý </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhóm thực hiện test </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhóm code đồng ý chỉnh sửa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đăng ký tài khoản </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Chọn nút SIGN UP từ màn hình </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đăng ký thành công </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đạt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Nhập số điện thoại, tên, mật khẩu, sau đó chọn SIGN UP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đăng nhập </t>
+  </si>
+  <si>
+    <t>1. Chọn SIGN IN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Đăng nhập thành công (nếu tài khoản chính xác) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Nhập số điện thoại, mật khẩu, sau đó chọn SIGN IN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Tài khoản không tồn tại trong Database (nếu tài khoản không chính xác) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xem trang menu </t>
+  </si>
+  <si>
+    <t>1. Sau khi đăng nhập thành công, lướt xem thực đơn của nhà hàng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị tên và hình ảnh món ăn </t>
+  </si>
+  <si>
+    <t>2. Có thanh chọn hành động cho người dùng (Menu, Cart, Orders, Sign out)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xem chi tiết món ăn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Chọn loại thức ăn để xem từng món ăn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị tất cả chi tiết từng loại món ăn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cần nhiều món ăn trong thực đơn hơn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhóm 56 sẽ chỉnh sửa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Chọn món ăn, xem mô tả, giá của món ăn </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,6 +341,20 @@
       <charset val="163"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -555,11 +653,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -636,49 +735,52 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -973,7 +1075,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -984,7 +1086,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -992,7 +1094,7 @@
     <col min="2" max="2" width="20.81640625" customWidth="1"/>
     <col min="4" max="4" width="28.26953125" customWidth="1"/>
     <col min="5" max="5" width="14.26953125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="49.453125" customWidth="1"/>
+    <col min="6" max="6" width="53.36328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.26953125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1097,6 +1199,9 @@
       </c>
       <c r="F5" t="s">
         <v>14</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -1126,9 +1231,10 @@
     <hyperlink ref="D3" r:id="rId3"/>
     <hyperlink ref="D2" r:id="rId4"/>
     <hyperlink ref="D5" r:id="rId5"/>
+    <hyperlink ref="G5" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -1136,7 +1242,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1147,14 +1253,14 @@
     <col min="3" max="3" width="108.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="28" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1200,7 +1306,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1235,10 +1341,10 @@
       <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28">
+      <c r="A2" s="29">
         <v>43549</v>
       </c>
-      <c r="B2" s="34">
+      <c r="B2" s="32">
         <v>43555</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -1256,8 +1362,8 @@
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="29"/>
-      <c r="B3" s="35"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="4" t="s">
         <v>35</v>
       </c>
@@ -1273,8 +1379,8 @@
       <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="29"/>
-      <c r="B4" s="35"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="33"/>
       <c r="C4" s="4" t="s">
         <v>30</v>
       </c>
@@ -1290,8 +1396,8 @@
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="29"/>
-      <c r="B5" s="35"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="4" t="s">
         <v>31</v>
       </c>
@@ -1307,8 +1413,8 @@
       <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:7" s="12" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="30"/>
-      <c r="B6" s="36"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="11" t="s">
         <v>36</v>
       </c>
@@ -1324,10 +1430,10 @@
       <c r="G6" s="16"/>
     </row>
     <row r="7" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="28">
+      <c r="A7" s="29">
         <v>43556</v>
       </c>
-      <c r="B7" s="31">
+      <c r="B7" s="35">
         <v>43562</v>
       </c>
       <c r="C7" s="9" t="s">
@@ -1345,8 +1451,8 @@
       <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="29"/>
-      <c r="B8" s="32"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="36"/>
       <c r="C8" s="4" t="s">
         <v>50</v>
       </c>
@@ -1362,8 +1468,8 @@
       <c r="G8" s="15"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="29"/>
-      <c r="B9" s="32"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="36"/>
       <c r="C9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1379,8 +1485,8 @@
       <c r="G9" s="15"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="29"/>
-      <c r="B10" s="32"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="36"/>
       <c r="C10" s="4" t="s">
         <v>52</v>
       </c>
@@ -1396,8 +1502,8 @@
       <c r="G10" s="15"/>
     </row>
     <row r="11" spans="1:7" s="12" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="30"/>
-      <c r="B11" s="33"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="37"/>
       <c r="C11" s="11" t="s">
         <v>53</v>
       </c>
@@ -1413,10 +1519,10 @@
       <c r="G11" s="16"/>
     </row>
     <row r="12" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="28">
+      <c r="A12" s="29">
         <v>43563</v>
       </c>
-      <c r="B12" s="31">
+      <c r="B12" s="35">
         <v>43569</v>
       </c>
       <c r="C12" s="9" t="s">
@@ -1432,8 +1538,8 @@
       <c r="G12" s="14"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="29"/>
-      <c r="B13" s="32"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="4" t="s">
         <v>50</v>
       </c>
@@ -1447,8 +1553,8 @@
       <c r="G13" s="15"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="29"/>
-      <c r="B14" s="32"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="36"/>
       <c r="C14" s="4" t="s">
         <v>51</v>
       </c>
@@ -1460,8 +1566,8 @@
       <c r="G14" s="15"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="29"/>
-      <c r="B15" s="32"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="36"/>
       <c r="C15" s="4" t="s">
         <v>55</v>
       </c>
@@ -1473,8 +1579,8 @@
       <c r="G15" s="15"/>
     </row>
     <row r="16" spans="1:7" s="12" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="30"/>
-      <c r="B16" s="33"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="37"/>
       <c r="C16" s="11" t="s">
         <v>53</v>
       </c>
@@ -1486,124 +1592,329 @@
       <c r="G16" s="16"/>
     </row>
     <row r="17" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="28">
+      <c r="A17" s="29">
         <v>43570</v>
       </c>
-      <c r="B17" s="31">
+      <c r="B17" s="35">
         <v>43576</v>
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="14"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="29"/>
-      <c r="B18" s="32"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="36"/>
       <c r="F18" s="23"/>
       <c r="G18" s="15"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="29"/>
-      <c r="B19" s="32"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="36"/>
       <c r="F19" s="23"/>
       <c r="G19" s="15"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="29"/>
-      <c r="B20" s="32"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="36"/>
       <c r="F20" s="23"/>
       <c r="G20" s="15"/>
     </row>
     <row r="21" spans="1:7" s="12" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="30"/>
-      <c r="B21" s="33"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="37"/>
       <c r="F21" s="25"/>
       <c r="G21" s="16"/>
     </row>
     <row r="22" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="28">
+      <c r="A22" s="29">
         <v>43577</v>
       </c>
-      <c r="B22" s="31">
+      <c r="B22" s="35">
         <v>43583</v>
       </c>
       <c r="F22" s="24"/>
       <c r="G22" s="14"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="29"/>
-      <c r="B23" s="32"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="36"/>
       <c r="F23" s="23"/>
       <c r="G23" s="15"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="29"/>
-      <c r="B24" s="32"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="36"/>
       <c r="F24" s="23"/>
       <c r="G24" s="15"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="29"/>
-      <c r="B25" s="32"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="36"/>
       <c r="F25" s="23"/>
       <c r="G25" s="15"/>
     </row>
     <row r="26" spans="1:7" s="12" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="30"/>
-      <c r="B26" s="33"/>
+      <c r="A26" s="31"/>
+      <c r="B26" s="37"/>
       <c r="F26" s="25"/>
       <c r="G26" s="16"/>
     </row>
     <row r="27" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="28">
+      <c r="A27" s="29">
         <v>43584</v>
       </c>
-      <c r="B27" s="31">
+      <c r="B27" s="35">
         <v>43590</v>
       </c>
       <c r="F27" s="24"/>
       <c r="G27" s="14"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="29"/>
-      <c r="B28" s="32"/>
+      <c r="A28" s="30"/>
+      <c r="B28" s="36"/>
       <c r="F28" s="23"/>
       <c r="G28" s="15"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="29"/>
-      <c r="B29" s="32"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="36"/>
       <c r="F29" s="23"/>
       <c r="G29" s="15"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="29"/>
-      <c r="B30" s="32"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="36"/>
       <c r="F30" s="23"/>
       <c r="G30" s="15"/>
     </row>
     <row r="31" spans="1:7" s="12" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="30"/>
-      <c r="B31" s="33"/>
+      <c r="A31" s="31"/>
+      <c r="B31" s="37"/>
       <c r="F31" s="25"/>
       <c r="G31" s="16"/>
     </row>
     <row r="32" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="B27:B31"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="B7:B11"/>
     <mergeCell ref="A12:A16"/>
     <mergeCell ref="B12:B16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="B27:B31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="28"/>
+    <col min="2" max="2" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="68.90625" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="68.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="40" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="40">
+        <v>1</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" s="39"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="39"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="40">
+        <v>2</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="I4" s="39"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="39"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="40">
+        <v>3</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" s="39"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="39"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="40">
+        <v>4</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="39"/>
+      <c r="G8" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="H8" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" s="40" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="39"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/N63_theo dõi tuần.xlsx
+++ b/N63_theo dõi tuần.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="157">
   <si>
     <t>Họ và tên</t>
   </si>
@@ -220,97 +220,274 @@
     <t>tiếp tục bổ sung database và coding</t>
   </si>
   <si>
-    <t>Nhóm 63</t>
-  </si>
-  <si>
     <t>https://github.com/huong12345</t>
   </si>
   <si>
-    <t xml:space="preserve">STT </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tên Test Case </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Các bước thực hiện </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kết quả mong đợi </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kết quả thực tế </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ghi chú </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Góp ý </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nhóm thực hiện test </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nhóm code đồng ý chỉnh sửa </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đăng ký tài khoản </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Chọn nút SIGN UP từ màn hình </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đăng ký thành công </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đạt </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. Nhập số điện thoại, tên, mật khẩu, sau đó chọn SIGN UP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đăng nhập </t>
-  </si>
-  <si>
-    <t>1. Chọn SIGN IN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Đăng nhập thành công (nếu tài khoản chính xác) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. Nhập số điện thoại, mật khẩu, sau đó chọn SIGN IN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. Tài khoản không tồn tại trong Database (nếu tài khoản không chính xác) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xem trang menu </t>
-  </si>
-  <si>
-    <t>1. Sau khi đăng nhập thành công, lướt xem thực đơn của nhà hàng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiển thị tên và hình ảnh món ăn </t>
-  </si>
-  <si>
-    <t>2. Có thanh chọn hành động cho người dùng (Menu, Cart, Orders, Sign out)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xem chi tiết món ăn </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Chọn loại thức ăn để xem từng món ăn </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiển thị tất cả chi tiết từng loại món ăn </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cần nhiều món ăn trong thực đơn hơn </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nhóm 56 sẽ chỉnh sửa </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. Chọn món ăn, xem mô tả, giá của món ăn </t>
+    <t>Tên Testcase</t>
+  </si>
+  <si>
+    <t>Các bước thực hiện</t>
+  </si>
+  <si>
+    <t>Kết quả mong đợi</t>
+  </si>
+  <si>
+    <t>Kết quả thực tế</t>
+  </si>
+  <si>
+    <t>Ghi chú</t>
+  </si>
+  <si>
+    <t>Góp ý</t>
+  </si>
+  <si>
+    <t>Nhóm thực hiện test</t>
+  </si>
+  <si>
+    <t>Nhóm code đồng ý chỉnh sửa</t>
+  </si>
+  <si>
+    <t>Đăng kí</t>
+  </si>
+  <si>
+    <t>1. Click 'Register Now'</t>
+  </si>
+  <si>
+    <t>Đăng kí thành công</t>
+  </si>
+  <si>
+    <t>Không</t>
+  </si>
+  <si>
+    <t>Nhóm 60</t>
+  </si>
+  <si>
+    <t>Nhóm 63 đồng ý chỉnh sửa</t>
+  </si>
+  <si>
+    <t>2. Nhập thông tin user</t>
+  </si>
+  <si>
+    <t>3. Click 'LOGIN'</t>
+  </si>
+  <si>
+    <t>Đăng nhập</t>
+  </si>
+  <si>
+    <t>1. Nhập username và password</t>
+  </si>
+  <si>
+    <t>Đăng nhập thành công</t>
+  </si>
+  <si>
+    <t>2. Click' 'LOGIN'</t>
+  </si>
+  <si>
+    <t>Lướt xem các vé trên trang chủ</t>
+  </si>
+  <si>
+    <t>Xem thành công</t>
+  </si>
+  <si>
+    <t>Thêm vé vào giỏ hàng</t>
+  </si>
+  <si>
+    <t>Thêm thành công</t>
+  </si>
+  <si>
+    <t>Tìm kiếm vé</t>
+  </si>
+  <si>
+    <t>Nhập 'vé xe sài gòn'</t>
+  </si>
+  <si>
+    <t>Tìm kiếm thành công</t>
+  </si>
+  <si>
+    <t>Nhập 'vé xa nha trang'</t>
+  </si>
+  <si>
+    <t>Vé không tồn tại, không hiển thị gì cả</t>
+  </si>
+  <si>
+    <t>Xem phần 'Giới thiệu'</t>
+  </si>
+  <si>
+    <t>Click vào menu ngang 'Giới thiệu'</t>
+  </si>
+  <si>
+    <t>Xem giới thiệu thành công</t>
+  </si>
+  <si>
+    <t>Click vào menu ngang 'Sản phẩm'</t>
+  </si>
+  <si>
+    <t>Xem phần 'Sản phẩm'</t>
+  </si>
+  <si>
+    <t>Xem sản phẩm thành công</t>
+  </si>
+  <si>
+    <t>Xem phần 'Hướng dẫn mua hàng</t>
+  </si>
+  <si>
+    <t>Click vào vé, chọn 'Thêm vào giỏ hàng'</t>
+  </si>
+  <si>
+    <t>Click vào menu ngang 'Hướng dẫn mua hàng'</t>
+  </si>
+  <si>
+    <t>Xem hướng dẫn thành công</t>
+  </si>
+  <si>
+    <t>Xem phần 'Liên hệ'</t>
+  </si>
+  <si>
+    <t>Click vào menu ngang 'Liên hệ'</t>
+  </si>
+  <si>
+    <t>Xem thông tin liên hệ thành công</t>
+  </si>
+  <si>
+    <t>Xem phần 'Vé Xe'</t>
+  </si>
+  <si>
+    <t>Click vào menu dọc 'Vé Xe'</t>
+  </si>
+  <si>
+    <t>Xem các vé xe thành công</t>
+  </si>
+  <si>
+    <t>Xem phần 'Vé giải trí'</t>
+  </si>
+  <si>
+    <t>Click vào menu dọc 'Vé giải trí'</t>
+  </si>
+  <si>
+    <t>Xem các vé giải trí thành công</t>
+  </si>
+  <si>
+    <t>Xem phần 'Vé du lịch'</t>
+  </si>
+  <si>
+    <t>Click vào menu dọc 'Vé du lịch'</t>
+  </si>
+  <si>
+    <t>Xem các vé du lịch thành công</t>
+  </si>
+  <si>
+    <t>Trống, không có vé hiển thị</t>
+  </si>
+  <si>
+    <t>Đăng nhập không thành công</t>
+  </si>
+  <si>
+    <t>Xem thông tin giỏ hàng</t>
+  </si>
+  <si>
+    <t>Click 'Giỏ hàng'</t>
+  </si>
+  <si>
+    <t>Xem giỏ hàng thành công</t>
+  </si>
+  <si>
+    <t>Thêm nhiều sản phẩm vào giỏ</t>
+  </si>
+  <si>
+    <t>1.Click các vé muốn mua</t>
+  </si>
+  <si>
+    <t>2.Click vào ô số lượng và nhập số lượng</t>
+  </si>
+  <si>
+    <t>3.Click 'Thêm vào giỏ hàng'</t>
+  </si>
+  <si>
+    <t>Click vào ô số lượng và nhập số lượng</t>
+  </si>
+  <si>
+    <t>Chỉnh sửa số lượng vé trong giỏ</t>
+  </si>
+  <si>
+    <t>1. Nhập 5 -&gt; Click 'Cập nhật'</t>
+  </si>
+  <si>
+    <t>Cập nhật thành công</t>
+  </si>
+  <si>
+    <t>2. Nhập 999999999 -&gt; Click 'Cập nhật'</t>
+  </si>
+  <si>
+    <t>Cập nhật thành công, Tổng hóa đơn bị tràn số</t>
+  </si>
+  <si>
+    <t>Cập nhật giới hạn số lượng vé</t>
+  </si>
+  <si>
+    <t>Điền form thông tin mua hàng</t>
+  </si>
+  <si>
+    <t>Điền các thông tin ng mua</t>
+  </si>
+  <si>
+    <t>Cập nhật thông tin thành công</t>
+  </si>
+  <si>
+    <t>1. Điền đủ tất cả các ô -&gt; Click 'Mua hàng'</t>
+  </si>
+  <si>
+    <t>Web báo 'Không được bỏ trống tên người mua , điện thoại , địa chỉ'</t>
+  </si>
+  <si>
+    <t>2. Bỏ trống ô 'Địachỉ' -&gt; Click 'Mua hàng'</t>
+  </si>
+  <si>
+    <t>Điền gmail người nhận</t>
+  </si>
+  <si>
+    <t>1. Điền đúng gmail</t>
+  </si>
+  <si>
+    <t>Không báo lỗi</t>
+  </si>
+  <si>
+    <t>2. Điền sai gmail</t>
+  </si>
+  <si>
+    <t>Báo lỗi</t>
+  </si>
+  <si>
+    <t>Chỉnh sửa</t>
+  </si>
+  <si>
+    <t>Điền số điện thoại</t>
+  </si>
+  <si>
+    <t>1. Điền đúng sđt</t>
+  </si>
+  <si>
+    <t>2. Điền sai sđt</t>
+  </si>
+  <si>
+    <t>Điền sai form thông tin mua hàng</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Xem trang chủ</t>
+  </si>
+  <si>
+    <t>Điền địa chỉ</t>
+  </si>
+  <si>
+    <t>1. Điền đúng địa chỉ</t>
+  </si>
+  <si>
+    <t>2. Điền sai địa chỉ</t>
+  </si>
+  <si>
+    <t>Trang trắng</t>
+  </si>
+  <si>
+    <t>TEST NỘI BỘ</t>
   </si>
 </sst>
 </file>
@@ -349,11 +526,12 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -658,7 +836,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -738,6 +916,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -747,6 +928,15 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -756,20 +946,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1075,7 +1252,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1201,7 +1378,7 @@
         <v>14</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -1341,10 +1518,10 @@
       <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29">
+      <c r="A2" s="30">
         <v>43549</v>
       </c>
-      <c r="B2" s="32">
+      <c r="B2" s="36">
         <v>43555</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -1362,8 +1539,8 @@
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="30"/>
-      <c r="B3" s="33"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="37"/>
       <c r="C3" s="4" t="s">
         <v>35</v>
       </c>
@@ -1379,8 +1556,8 @@
       <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="30"/>
-      <c r="B4" s="33"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="37"/>
       <c r="C4" s="4" t="s">
         <v>30</v>
       </c>
@@ -1396,8 +1573,8 @@
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="30"/>
-      <c r="B5" s="33"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="37"/>
       <c r="C5" s="4" t="s">
         <v>31</v>
       </c>
@@ -1413,8 +1590,8 @@
       <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:7" s="12" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="31"/>
-      <c r="B6" s="34"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="11" t="s">
         <v>36</v>
       </c>
@@ -1430,10 +1607,10 @@
       <c r="G6" s="16"/>
     </row>
     <row r="7" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="29">
+      <c r="A7" s="30">
         <v>43556</v>
       </c>
-      <c r="B7" s="35">
+      <c r="B7" s="33">
         <v>43562</v>
       </c>
       <c r="C7" s="9" t="s">
@@ -1451,8 +1628,8 @@
       <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="30"/>
-      <c r="B8" s="36"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="34"/>
       <c r="C8" s="4" t="s">
         <v>50</v>
       </c>
@@ -1468,8 +1645,8 @@
       <c r="G8" s="15"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="30"/>
-      <c r="B9" s="36"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="34"/>
       <c r="C9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1485,8 +1662,8 @@
       <c r="G9" s="15"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="30"/>
-      <c r="B10" s="36"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="34"/>
       <c r="C10" s="4" t="s">
         <v>52</v>
       </c>
@@ -1502,8 +1679,8 @@
       <c r="G10" s="15"/>
     </row>
     <row r="11" spans="1:7" s="12" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="31"/>
-      <c r="B11" s="37"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="35"/>
       <c r="C11" s="11" t="s">
         <v>53</v>
       </c>
@@ -1519,10 +1696,10 @@
       <c r="G11" s="16"/>
     </row>
     <row r="12" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="29">
+      <c r="A12" s="30">
         <v>43563</v>
       </c>
-      <c r="B12" s="35">
+      <c r="B12" s="33">
         <v>43569</v>
       </c>
       <c r="C12" s="9" t="s">
@@ -1538,8 +1715,8 @@
       <c r="G12" s="14"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="30"/>
-      <c r="B13" s="36"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="34"/>
       <c r="C13" s="4" t="s">
         <v>50</v>
       </c>
@@ -1553,8 +1730,8 @@
       <c r="G13" s="15"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="30"/>
-      <c r="B14" s="36"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="34"/>
       <c r="C14" s="4" t="s">
         <v>51</v>
       </c>
@@ -1566,8 +1743,8 @@
       <c r="G14" s="15"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="30"/>
-      <c r="B15" s="36"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="34"/>
       <c r="C15" s="4" t="s">
         <v>55</v>
       </c>
@@ -1579,8 +1756,8 @@
       <c r="G15" s="15"/>
     </row>
     <row r="16" spans="1:7" s="12" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="31"/>
-      <c r="B16" s="37"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="11" t="s">
         <v>53</v>
       </c>
@@ -1592,122 +1769,122 @@
       <c r="G16" s="16"/>
     </row>
     <row r="17" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="29">
+      <c r="A17" s="30">
         <v>43570</v>
       </c>
-      <c r="B17" s="35">
+      <c r="B17" s="33">
         <v>43576</v>
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="14"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="30"/>
-      <c r="B18" s="36"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="34"/>
       <c r="F18" s="23"/>
       <c r="G18" s="15"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="30"/>
-      <c r="B19" s="36"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="34"/>
       <c r="F19" s="23"/>
       <c r="G19" s="15"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="30"/>
-      <c r="B20" s="36"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="34"/>
       <c r="F20" s="23"/>
       <c r="G20" s="15"/>
     </row>
     <row r="21" spans="1:7" s="12" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="31"/>
-      <c r="B21" s="37"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="35"/>
       <c r="F21" s="25"/>
       <c r="G21" s="16"/>
     </row>
     <row r="22" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="29">
+      <c r="A22" s="30">
         <v>43577</v>
       </c>
-      <c r="B22" s="35">
+      <c r="B22" s="33">
         <v>43583</v>
       </c>
       <c r="F22" s="24"/>
       <c r="G22" s="14"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="30"/>
-      <c r="B23" s="36"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="34"/>
       <c r="F23" s="23"/>
       <c r="G23" s="15"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="30"/>
-      <c r="B24" s="36"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="34"/>
       <c r="F24" s="23"/>
       <c r="G24" s="15"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="30"/>
-      <c r="B25" s="36"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="34"/>
       <c r="F25" s="23"/>
       <c r="G25" s="15"/>
     </row>
     <row r="26" spans="1:7" s="12" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="31"/>
-      <c r="B26" s="37"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="35"/>
       <c r="F26" s="25"/>
       <c r="G26" s="16"/>
     </row>
     <row r="27" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="29">
+      <c r="A27" s="30">
         <v>43584</v>
       </c>
-      <c r="B27" s="35">
+      <c r="B27" s="33">
         <v>43590</v>
       </c>
       <c r="F27" s="24"/>
       <c r="G27" s="14"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="30"/>
-      <c r="B28" s="36"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="34"/>
       <c r="F28" s="23"/>
       <c r="G28" s="15"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="30"/>
-      <c r="B29" s="36"/>
+      <c r="A29" s="31"/>
+      <c r="B29" s="34"/>
       <c r="F29" s="23"/>
       <c r="G29" s="15"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="30"/>
-      <c r="B30" s="36"/>
+      <c r="A30" s="31"/>
+      <c r="B30" s="34"/>
       <c r="F30" s="23"/>
       <c r="G30" s="15"/>
     </row>
     <row r="31" spans="1:7" s="12" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="31"/>
-      <c r="B31" s="37"/>
+      <c r="A31" s="32"/>
+      <c r="B31" s="35"/>
       <c r="F31" s="25"/>
       <c r="G31" s="16"/>
     </row>
     <row r="32" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="B12:B16"/>
     <mergeCell ref="A17:A21"/>
     <mergeCell ref="A22:A26"/>
     <mergeCell ref="A27:A31"/>
     <mergeCell ref="B17:B21"/>
     <mergeCell ref="B22:B26"/>
     <mergeCell ref="B27:B31"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="B12:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1716,202 +1893,935 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="28"/>
-    <col min="2" max="2" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="68.90625" style="38" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="68.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7265625" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.7265625" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.6328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="27.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="D1" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="E1" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="F1" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="G1" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="H1" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="I1" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="40" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="28">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>76</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="C2" s="29" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="40">
+      <c r="D2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3"/>
+      <c r="C3" s="29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4"/>
+      <c r="C4" s="29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="28">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6"/>
+      <c r="C6" s="29" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="28">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="28">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="28">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="28">
+        <v>6</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="28">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="28">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="28">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="28">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="28">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="28">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="28">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="28">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="D18" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C19" s="29" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C20" s="29" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="28">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="D21" t="s">
+        <v>123</v>
+      </c>
+      <c r="E21" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="28">
+        <v>16</v>
+      </c>
+      <c r="B22" t="s">
+        <v>129</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C23" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="D23" t="s">
+        <v>131</v>
+      </c>
+      <c r="E23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="28">
+        <v>17</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="D24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E24" t="s">
+        <v>133</v>
+      </c>
+      <c r="G24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="28">
+        <v>18</v>
+      </c>
+      <c r="B25" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C26" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="D26" t="s">
+        <v>137</v>
+      </c>
+      <c r="E26" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="28">
+        <v>19</v>
+      </c>
+      <c r="B27" t="s">
+        <v>150</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="D27" t="s">
+        <v>137</v>
+      </c>
+      <c r="E27" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="28">
+        <v>20</v>
+      </c>
+      <c r="B28" t="s">
+        <v>141</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="D28" t="s">
+        <v>143</v>
+      </c>
+      <c r="E28" t="s">
+        <v>143</v>
+      </c>
+      <c r="G28" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C29" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="D29" t="s">
+        <v>145</v>
+      </c>
+      <c r="E29" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="28">
+        <v>21</v>
+      </c>
+      <c r="B30" t="s">
+        <v>147</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="D30" t="s">
+        <v>143</v>
+      </c>
+      <c r="E30" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C31" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="D31" t="s">
+        <v>145</v>
+      </c>
+      <c r="E31" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="28">
+        <v>22</v>
+      </c>
+      <c r="B32" t="s">
+        <v>152</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="D32" t="s">
+        <v>143</v>
+      </c>
+      <c r="E32" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C33" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="D33" t="s">
+        <v>145</v>
+      </c>
+      <c r="E33" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B34" s="39" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" s="28">
         <v>1</v>
       </c>
-      <c r="B2" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="40" t="s">
+      <c r="B35" t="s">
+        <v>151</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" t="s">
+        <v>89</v>
+      </c>
+      <c r="E35" t="s">
+        <v>89</v>
+      </c>
+      <c r="H35">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" s="28">
+        <v>2</v>
+      </c>
+      <c r="B36" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D36" t="s">
+        <v>94</v>
+      </c>
+      <c r="E36" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" s="28">
+        <v>3</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="D37" t="s">
+        <v>94</v>
+      </c>
+      <c r="E37" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" s="28">
+        <v>4</v>
+      </c>
+      <c r="B38" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" t="s">
+        <v>99</v>
+      </c>
+      <c r="E38" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" s="28">
+        <v>5</v>
+      </c>
+      <c r="B39" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="D39" t="s">
+        <v>102</v>
+      </c>
+      <c r="E39" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" s="28">
+        <v>6</v>
+      </c>
+      <c r="B40" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="D40" t="s">
+        <v>106</v>
+      </c>
+      <c r="E40" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" s="28">
+        <v>7</v>
+      </c>
+      <c r="B41" t="s">
+        <v>107</v>
+      </c>
+      <c r="C41" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D41" t="s">
+        <v>109</v>
+      </c>
+      <c r="E41" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42" s="28">
+        <v>8</v>
+      </c>
+      <c r="B42" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="D42" t="s">
+        <v>112</v>
+      </c>
+      <c r="E42" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43" s="28">
+        <v>9</v>
+      </c>
+      <c r="B43" t="s">
+        <v>113</v>
+      </c>
+      <c r="C43" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="D43" t="s">
+        <v>115</v>
+      </c>
+      <c r="E43" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44" s="28">
+        <v>10</v>
+      </c>
+      <c r="B44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="D44" t="s">
+        <v>91</v>
+      </c>
+      <c r="E44" t="s">
+        <v>91</v>
+      </c>
+      <c r="F44" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="E2" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="I2" s="39"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="39"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="40">
-        <v>2</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="E4" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="I4" s="39"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="39"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="D5" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="40">
-        <v>3</v>
-      </c>
-      <c r="B6" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="E6" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="I6" s="39"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="39"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="40" t="s">
+      <c r="G44" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45" s="28">
+        <v>11</v>
+      </c>
+      <c r="B45" t="s">
+        <v>116</v>
+      </c>
+      <c r="C45" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="D45" t="s">
+        <v>118</v>
+      </c>
+      <c r="E45" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A46" s="28">
+        <v>12</v>
+      </c>
+      <c r="B46" t="s">
+        <v>124</v>
+      </c>
+      <c r="C46" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="D46" t="s">
         <v>91</v>
       </c>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="40">
-        <v>4</v>
-      </c>
-      <c r="B8" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="D8" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="E8" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="F8" s="39"/>
-      <c r="G8" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="H8" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="I8" s="40" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="39"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
+      <c r="E46" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C47" s="29" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C48" s="29" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="28">
+        <v>13</v>
+      </c>
+      <c r="B49" t="s">
+        <v>121</v>
+      </c>
+      <c r="C49" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="D49" t="s">
+        <v>123</v>
+      </c>
+      <c r="E49" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="28">
+        <v>14</v>
+      </c>
+      <c r="B50" t="s">
+        <v>129</v>
+      </c>
+      <c r="C50" s="29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C51" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="D51" t="s">
+        <v>131</v>
+      </c>
+      <c r="E51" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" s="28">
+        <v>15</v>
+      </c>
+      <c r="C52" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="D52" t="s">
+        <v>131</v>
+      </c>
+      <c r="E52" t="s">
+        <v>133</v>
+      </c>
+      <c r="G52" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" s="28">
+        <v>16</v>
+      </c>
+      <c r="B53" t="s">
+        <v>135</v>
+      </c>
+      <c r="C53" s="29" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C54" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="D54" t="s">
+        <v>137</v>
+      </c>
+      <c r="E54" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" s="28">
+        <v>17</v>
+      </c>
+      <c r="B55" t="s">
+        <v>150</v>
+      </c>
+      <c r="C55" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="D55" t="s">
+        <v>137</v>
+      </c>
+      <c r="E55" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" s="28">
+        <v>18</v>
+      </c>
+      <c r="B56" t="s">
+        <v>141</v>
+      </c>
+      <c r="C56" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="D56" t="s">
+        <v>143</v>
+      </c>
+      <c r="E56" t="s">
+        <v>143</v>
+      </c>
+      <c r="G56" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C57" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="D57" t="s">
+        <v>145</v>
+      </c>
+      <c r="E57" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" s="28">
+        <v>19</v>
+      </c>
+      <c r="B58" t="s">
+        <v>147</v>
+      </c>
+      <c r="C58" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="D58" t="s">
+        <v>143</v>
+      </c>
+      <c r="E58" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C59" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="D59" t="s">
+        <v>145</v>
+      </c>
+      <c r="E59" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" s="28">
+        <v>20</v>
+      </c>
+      <c r="B60" t="s">
+        <v>152</v>
+      </c>
+      <c r="C60" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="D60" t="s">
+        <v>143</v>
+      </c>
+      <c r="E60" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C61" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="D61" t="s">
+        <v>145</v>
+      </c>
+      <c r="E61" t="s">
+        <v>143</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
